--- a/results_df.xlsx
+++ b/results_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR2"/>
+  <dimension ref="A1:BS2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,6 +776,11 @@
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
+          <t>Age_Recommendation</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
           <t>Final Score</t>
         </is>
       </c>
@@ -1027,6 +1032,9 @@
         </is>
       </c>
       <c r="BR2" t="n">
+        <v>12</v>
+      </c>
+      <c r="BS2" t="n">
         <v>8.5</v>
       </c>
     </row>
